--- a/ap.xlsx
+++ b/ap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6ECF97-CA39-4FA8-8822-E830ADAC030A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ECB22A-04EE-489D-91DF-E60F3EE961AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1692,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{3C81DEA9-5601-4F66-AA42-1730713937A1}">
       <text>
         <r>
           <rPr>
@@ -1882,7 +1882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1908,7 +1908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1944,7 +1944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
       <text>
         <r>
           <rPr>
@@ -1980,7 +1980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -2052,7 +2052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
       <text>
         <r>
           <rPr>
@@ -2090,7 +2090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
       <text>
         <r>
           <rPr>
@@ -2116,7 +2116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
       <text>
         <r>
           <rPr>
@@ -2152,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
       <text>
         <r>
           <rPr>
@@ -2178,7 +2178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
       <text>
         <r>
           <rPr>
@@ -3119,7 +3119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="275">
   <si>
     <t>动作名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4203,6 +4203,26 @@
   </si>
   <si>
     <t>冲击波高度 可以不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>force*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌闪避时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻滚力度 默认1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4408,7 +4428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4449,6 +4469,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4783,10 +4806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
@@ -4817,21 +4840,21 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -4860,10 +4883,10 @@
       <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -4886,18 +4909,18 @@
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -4932,17 +4955,17 @@
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -4974,10 +4997,10 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="14" t="s">
         <v>46</v>
       </c>
@@ -5016,10 +5039,10 @@
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -5088,13 +5111,13 @@
       <c r="G8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -5126,17 +5149,17 @@
       <c r="G9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -5180,17 +5203,17 @@
       <c r="K10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="15"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -5286,10 +5309,10 @@
       <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="14" t="s">
         <v>99</v>
       </c>
@@ -5299,24 +5322,24 @@
       <c r="L13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="15"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="16"/>
       <c r="R13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="S13" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="T13" s="15"/>
+      <c r="T13" s="16"/>
     </row>
     <row r="14" spans="1:20" ht="29.95" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -5340,10 +5363,10 @@
       <c r="G14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="14" t="s">
         <v>99</v>
       </c>
@@ -5353,17 +5376,17 @@
       <c r="L14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="15"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -5390,19 +5413,19 @@
       <c r="G15" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -5432,21 +5455,21 @@
       <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
       <c r="Q16" s="14" t="s">
         <v>181</v>
       </c>
@@ -5478,17 +5501,17 @@
       <c r="G17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="14" t="s">
         <v>4</v>
       </c>
@@ -5498,10 +5521,10 @@
       <c r="O17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" s="15"/>
+      <c r="Q17" s="16"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -5555,8 +5578,12 @@
       <c r="B19" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E19" s="14" t="s">
         <v>40</v>
       </c>
@@ -5584,11 +5611,11 @@
       <c r="M19" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
       <c r="Q19" s="14" t="s">
         <v>240</v>
       </c>
@@ -5671,17 +5698,17 @@
       <c r="G21" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -5691,235 +5718,247 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="23" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+    <row r="22" spans="1:21" ht="29.95" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
     </row>
     <row r="24" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>136</v>
+      <c r="A24" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>195</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="15"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:21" ht="29.95" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="H25" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="L25" s="15"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>223</v>
+      <c r="A26" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="O26" s="12" t="s">
+      <c r="I26" s="16"/>
+      <c r="J26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="K26" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="T26" s="15"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="A27" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:21" ht="29.95" customHeight="1">
+      <c r="A29" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D30" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="29.95" customHeight="1">
       <c r="A31" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="29.95" customHeight="1">
+      <c r="A32" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:I3"/>
@@ -5933,7 +5972,29 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5961,28 +6022,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15.05" thickTop="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -6241,13 +6302,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
@@ -6306,18 +6367,18 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -6326,30 +6387,30 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6397,17 +6458,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -6529,14 +6590,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ECB22A-04EE-489D-91DF-E60F3EE961AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CEBB52-E298-4124-B9B5-FF962150519E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Bryan_lzh</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -2211,6 +2212,33 @@
             <charset val="134"/>
           </rPr>
           <t>Particle: 'ColorDust(255,0,0)'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N30" authorId="1" shapeId="0" xr:uid="{2CB16BE9-7FE6-4F49-A098-0D0ED70A724A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0是竖着的物品
+1是横着的物品</t>
         </r>
       </text>
     </comment>
@@ -2725,6 +2753,62 @@
       </text>
     </comment>
     <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Bryan_lzh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+true
+false
+不懂就听我解释
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{2354D64B-2378-481D-A79A-242F4B800211}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Bryan_lzh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填0表示无限次数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{8B210469-8016-41A0-A640-4FB0E71E09C9}">
       <text>
         <r>
           <rPr>
@@ -3119,7 +3203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="291">
   <si>
     <t>动作名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4223,6 +4307,70 @@
   </si>
   <si>
     <t>翻滚力度 默认1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaunchItemTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射物品触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaunchItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过盔甲架发射一个物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 物品id:损伤值:lore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLength*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRange*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害判定半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器用关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质旋转类型 只能写0或者1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中后是否摧毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destroyOnHit**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4428,7 +4576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4469,6 +4617,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4806,10 +4957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="G18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
@@ -4827,7 +4978,7 @@
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.6640625" customWidth="1"/>
     <col min="18" max="18" width="25.5546875" bestFit="1" customWidth="1"/>
@@ -4840,21 +4991,21 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -4883,10 +5034,10 @@
       <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -4909,18 +5060,18 @@
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -4955,17 +5106,17 @@
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -4997,10 +5148,10 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="14" t="s">
         <v>46</v>
       </c>
@@ -5039,10 +5190,10 @@
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -5111,13 +5262,13 @@
       <c r="G8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -5149,17 +5300,17 @@
       <c r="G9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -5203,17 +5354,17 @@
       <c r="K10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="16"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="16"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -5309,10 +5460,10 @@
       <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="14" t="s">
         <v>99</v>
       </c>
@@ -5322,24 +5473,24 @@
       <c r="L13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="16"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="17"/>
       <c r="R13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="T13" s="16"/>
+      <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" ht="29.95" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -5363,10 +5514,10 @@
       <c r="G14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="14" t="s">
         <v>99</v>
       </c>
@@ -5376,17 +5527,17 @@
       <c r="L14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="17"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -5413,19 +5564,19 @@
       <c r="G15" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -5455,21 +5606,21 @@
       <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="14" t="s">
         <v>181</v>
       </c>
@@ -5501,17 +5652,17 @@
       <c r="G17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="14" t="s">
         <v>4</v>
       </c>
@@ -5521,10 +5672,10 @@
       <c r="O17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -5611,11 +5762,11 @@
       <c r="M19" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
       <c r="Q19" s="14" t="s">
         <v>240</v>
       </c>
@@ -5698,17 +5849,17 @@
       <c r="G21" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -5801,10 +5952,10 @@
       <c r="G25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:21" ht="29.95" customHeight="1">
       <c r="A26" s="2" t="s">
@@ -5828,17 +5979,17 @@
       <c r="G26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:21" ht="29.95" customHeight="1">
       <c r="A27" s="12" t="s">
@@ -5862,17 +6013,17 @@
       <c r="G27" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="17"/>
       <c r="M27" s="12" t="s">
         <v>227</v>
       </c>
@@ -5882,17 +6033,17 @@
       <c r="O27" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="P27" s="16" t="s">
+      <c r="P27" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="17"/>
       <c r="R27" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="T27" s="16"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="1:21" ht="29.95" customHeight="1">
       <c r="A28" s="12"/>
@@ -5928,36 +6079,108 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A31" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" t="s">
-        <v>220</v>
+    <row r="30" spans="1:21" ht="29.95" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="29.95" customHeight="1">
       <c r="A32" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29.95" customHeight="1">
+      <c r="A33" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -5973,28 +6196,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6022,28 +6223,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="15.05" thickTop="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -6302,13 +6503,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
@@ -6367,18 +6568,18 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -6387,30 +6588,30 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6434,16 +6635,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.21875" bestFit="1" customWidth="1"/>
@@ -6458,17 +6659,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -6552,6 +6753,38 @@
       </c>
       <c r="H4" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -6590,14 +6823,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CEBB52-E298-4124-B9B5-FF962150519E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC6D644-2D97-47DB-A710-68BE9FF22013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1883,7 +1883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1909,7 +1909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1945,7 +1945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
       <text>
         <r>
           <rPr>
@@ -1981,7 +1981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
       <text>
         <r>
           <rPr>
@@ -2017,7 +2017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -2053,7 +2053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
       <text>
         <r>
           <rPr>
@@ -2091,7 +2091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
       <text>
         <r>
           <rPr>
@@ -2117,7 +2117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
       <text>
         <r>
           <rPr>
@@ -2179,7 +2179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
       <text>
         <r>
           <rPr>
@@ -2215,7 +2215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N30" authorId="1" shapeId="0" xr:uid="{2CB16BE9-7FE6-4F49-A098-0D0ED70A724A}">
+    <comment ref="N31" authorId="1" shapeId="0" xr:uid="{2CB16BE9-7FE6-4F49-A098-0D0ED70A724A}">
       <text>
         <r>
           <rPr>
@@ -3203,7 +3203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="296">
   <si>
     <t>动作名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4371,6 +4371,25 @@
   </si>
   <si>
     <t>destroyOnHit**</t>
+  </si>
+  <si>
+    <t>SurroundItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环绕飞翔的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角速度, 弧度制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4576,7 +4595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4617,6 +4636,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4957,10 +4979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
@@ -4977,11 +4999,13 @@
     <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.6640625" customWidth="1"/>
     <col min="18" max="18" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.95" customHeight="1">
@@ -4991,21 +5015,21 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -5034,10 +5058,10 @@
       <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -5060,18 +5084,18 @@
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -5106,17 +5130,17 @@
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -5148,10 +5172,10 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="14" t="s">
         <v>46</v>
       </c>
@@ -5190,10 +5214,10 @@
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -5262,13 +5286,13 @@
       <c r="G8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -5300,17 +5324,17 @@
       <c r="G9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -5354,17 +5378,17 @@
       <c r="K10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="17"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -5460,10 +5484,10 @@
       <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="14" t="s">
         <v>99</v>
       </c>
@@ -5473,24 +5497,24 @@
       <c r="L13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="S13" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="T13" s="17"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:20" ht="29.95" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -5514,10 +5538,10 @@
       <c r="G14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="14" t="s">
         <v>99</v>
       </c>
@@ -5527,17 +5551,17 @@
       <c r="L14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -5564,19 +5588,19 @@
       <c r="G15" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -5606,21 +5630,21 @@
       <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
       <c r="Q16" s="14" t="s">
         <v>181</v>
       </c>
@@ -5652,17 +5676,17 @@
       <c r="G17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="17"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="14" t="s">
         <v>4</v>
       </c>
@@ -5672,10 +5696,10 @@
       <c r="O17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" s="17"/>
+      <c r="Q17" s="18"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -5762,11 +5786,11 @@
       <c r="M19" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
       <c r="Q19" s="14" t="s">
         <v>240</v>
       </c>
@@ -5849,17 +5873,17 @@
       <c r="G21" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -5903,284 +5927,324 @@
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
     </row>
-    <row r="24" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+    <row r="23" spans="1:21" ht="29.95" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>136</v>
+      <c r="A25" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>138</v>
+        <v>195</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="17"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:21" ht="29.95" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="H26" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>223</v>
+      <c r="A27" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="O27" s="12" t="s">
+      <c r="I27" s="18"/>
+      <c r="J27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P27" s="17" t="s">
+      <c r="K27" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="T27" s="17"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="A28" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="T28" s="18"/>
     </row>
     <row r="29" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="A29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="29.95" customHeight="1">
+      <c r="A31" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G31" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H31" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I31" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J31" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K31" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L31" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M31" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="N31" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="O30" s="16" t="s">
+      <c r="O31" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="P31" s="16" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="29.95" customHeight="1">
       <c r="A33" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29.95" customHeight="1">
+      <c r="A34" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -6196,6 +6260,28 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6223,28 +6309,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="15.05" thickTop="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -6503,13 +6589,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
@@ -6568,18 +6654,18 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -6588,30 +6674,30 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6659,17 +6745,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -6823,14 +6909,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC6D644-2D97-47DB-A710-68BE9FF22013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C123AB-C36E-4F24-BCB2-C63C359DA541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3203,7 +3203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="296">
   <si>
     <t>动作名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4982,7 +4982,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
@@ -5959,10 +5959,10 @@
         <v>146</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="M23" s="17" t="s">
         <v>290</v>
@@ -5981,12 +5981,6 @@
       </c>
       <c r="R23" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="T23" s="17" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="29.95" customHeight="1">
@@ -6245,6 +6239,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -6261,27 +6276,6 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:L27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C123AB-C36E-4F24-BCB2-C63C359DA541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3407E6-B2FF-41E0-9FD0-9F4E6FB1433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动作" sheetId="1" r:id="rId1"/>
@@ -1883,7 +1883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1909,7 +1909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1945,7 +1945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
       <text>
         <r>
           <rPr>
@@ -1981,7 +1981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
       <text>
         <r>
           <rPr>
@@ -2017,7 +2017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -2053,7 +2053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
       <text>
         <r>
           <rPr>
@@ -2091,7 +2091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
       <text>
         <r>
           <rPr>
@@ -2117,7 +2117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
       <text>
         <r>
           <rPr>
@@ -2179,7 +2179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
       <text>
         <r>
           <rPr>
@@ -2215,7 +2215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N31" authorId="1" shapeId="0" xr:uid="{2CB16BE9-7FE6-4F49-A098-0D0ED70A724A}">
+    <comment ref="N32" authorId="1" shapeId="0" xr:uid="{2CB16BE9-7FE6-4F49-A098-0D0ED70A724A}">
       <text>
         <r>
           <rPr>
@@ -2809,6 +2809,62 @@
       </text>
     </comment>
     <comment ref="F5" authorId="0" shapeId="0" xr:uid="{8B210469-8016-41A0-A640-4FB0E71E09C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Bryan_lzh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+true
+false
+不懂就听我解释
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{FCF8BFCE-37A9-4A61-8BE9-2C39BAC35609}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Bryan_lzh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填0表示无限次数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{FD848777-B708-477D-90DA-060094459ADB}">
       <text>
         <r>
           <rPr>
@@ -3203,7 +3259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="307">
   <si>
     <t>动作名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4390,6 +4446,50 @@
   </si>
   <si>
     <t>旋转次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageZone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂配置项 请参考范例配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建特定的形状 并且在延迟后触发触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShapeTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状区域触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否触发释放者本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟 tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放点是否跟随玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4595,7 +4695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4636,6 +4736,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4979,10 +5082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
@@ -4998,7 +5101,7 @@
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -5015,21 +5118,21 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -5058,10 +5161,10 @@
       <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -5084,18 +5187,18 @@
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -5130,17 +5233,17 @@
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -5172,10 +5275,10 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="14" t="s">
         <v>46</v>
       </c>
@@ -5214,10 +5317,10 @@
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -5286,13 +5389,13 @@
       <c r="G8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -5324,17 +5427,17 @@
       <c r="G9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -5378,17 +5481,17 @@
       <c r="K10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="18"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -5484,10 +5587,10 @@
       <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="14" t="s">
         <v>99</v>
       </c>
@@ -5497,24 +5600,24 @@
       <c r="L13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="T13" s="18"/>
+      <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:20" ht="29.95" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -5538,10 +5641,10 @@
       <c r="G14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="14" t="s">
         <v>99</v>
       </c>
@@ -5551,17 +5654,17 @@
       <c r="L14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="18"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="19"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -5588,19 +5691,19 @@
       <c r="G15" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -5630,21 +5733,21 @@
       <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="14" t="s">
         <v>181</v>
       </c>
@@ -5676,17 +5779,17 @@
       <c r="G17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="14" t="s">
         <v>4</v>
       </c>
@@ -5696,10 +5799,10 @@
       <c r="O17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="19"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -5786,11 +5889,11 @@
       <c r="M19" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="14" t="s">
         <v>240</v>
       </c>
@@ -5873,17 +5976,17 @@
       <c r="G21" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="L21" s="18"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -5983,283 +6086,306 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+    <row r="24" spans="1:21" ht="29.95" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
     </row>
     <row r="26" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>136</v>
+      <c r="A26" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>138</v>
+        <v>195</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="18"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:21" ht="29.95" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="H27" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="L27" s="18"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>223</v>
+      <c r="A28" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="O28" s="12" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="K28" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="S28" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="T28" s="18"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
+      <c r="A29" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="A30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="29.95" customHeight="1">
+      <c r="A32" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F32" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G32" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H32" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I32" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J32" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K32" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L32" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="M32" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N32" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="O32" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P31" s="16" t="s">
+      <c r="P32" s="16" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="29.95" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.95" customHeight="1">
       <c r="A34" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="29.95" customHeight="1">
+      <c r="A35" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -6276,6 +6402,27 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6303,28 +6450,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="15.05" thickTop="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -6583,13 +6730,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
@@ -6648,18 +6795,18 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -6668,30 +6815,30 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6715,10 +6862,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6739,17 +6886,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -6864,6 +7011,38 @@
         <v>277</v>
       </c>
       <c r="J5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6882,7 +7061,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6903,14 +7082,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3407E6-B2FF-41E0-9FD0-9F4E6FB1433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC87B69-6E30-4E07-9F6A-68BF01706531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动作" sheetId="1" r:id="rId1"/>
@@ -2239,6 +2239,1182 @@
           <t xml:space="preserve">
 0是竖着的物品
 1是横着的物品</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="1" shapeId="0" xr:uid="{B188D593-2201-42AC-BBAA-B16188E99504}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    AMBIENT_CAVE,
+    BLOCK_ANVIL_BREAK,
+    BLOCK_ANVIL_DESTROY,
+    BLOCK_ANVIL_FALL,
+    BLOCK_ANVIL_HIT,
+    BLOCK_ANVIL_LAND,
+    BLOCK_ANVIL_PLACE,
+    BLOCK_ANVIL_STEP,
+    BLOCK_ANVIL_USE,
+    BLOCK_BREWING_STAND_BREW,
+    BLOCK_CHEST_CLOSE,
+    BLOCK_CHEST_LOCKED,
+    BLOCK_CHEST_OPEN,
+    BLOCK_CHORUS_FLOWER_DEATH,
+    BLOCK_CHORUS_FLOWER_GROW,
+    BLOCK_CLOTH_BREAK,
+    BLOCK_CLOTH_FALL,
+    BLOCK_CLOTH_HIT,
+    BLOCK_CLOTH_PLACE,
+    BLOCK_CLOTH_STEP,
+    BLOCK_COMPARATOR_CLICK,
+    BLOCK_DISPENSER_DISPENSE,
+    BLOCK_DISPENSER_FAIL,
+    BLOCK_DISPENSER_LAUNCH,
+    BLOCK_ENCHANTMENT_TABLE_USE,
+    BLOCK_ENDERCHEST_CLOSE,
+    BLOCK_ENDERCHEST_OPEN,
+    BLOCK_END_GATEWAY_SPAWN,
+    BLOCK_END_PORTAL_FRAME_FILL,
+    BLOCK_END_PORTAL_SPAWN,
+    BLOCK_FENCE_GATE_CLOSE,
+    BLOCK_FENCE_GATE_OPEN,
+    BLOCK_FIRE_AMBIENT,
+    BLOCK_FIRE_EXTINGUISH,
+    BLOCK_FURNACE_FIRE_CRACKLE,
+    BLOCK_GLASS_BREAK,
+    BLOCK_GLASS_FALL,
+    BLOCK_GLASS_HIT,
+    BLOCK_GLASS_PLACE,
+    BLOCK_GLASS_STEP,
+    BLOCK_GRASS_BREAK,
+    BLOCK_GRASS_FALL,
+    BLOCK_GRASS_HIT,
+    BLOCK_GRASS_PLACE,
+    BLOCK_GRASS_STEP,
+    BLOCK_GRAVEL_BREAK,
+    BLOCK_GRAVEL_FALL,
+    BLOCK_GRAVEL_HIT,
+    BLOCK_GRAVEL_PLACE,
+    BLOCK_GRAVEL_STEP,
+    BLOCK_IRON_DOOR_CLOSE,
+    BLOCK_IRON_DOOR_OPEN,
+    BLOCK_IRON_TRAPDOOR_CLOSE,
+    BLOCK_IRON_TRAPDOOR_OPEN,
+    BLOCK_LADDER_BREAK,
+    BLOCK_LADDER_FALL,
+    BLOCK_LADDER_HIT,
+    BLOCK_LADDER_PLACE,
+    BLOCK_LADDER_STEP,
+    BLOCK_LAVA_AMBIENT,
+    BLOCK_LAVA_EXTINGUISH,
+    BLOCK_LAVA_POP,
+    BLOCK_LEVER_CLICK,
+    BLOCK_METAL_BREAK,
+    BLOCK_METAL_FALL,
+    BLOCK_METAL_HIT,
+    BLOCK_METAL_PLACE,
+    BLOCK_METAL_PRESSUREPLATE_CLICK_OFF,
+    BLOCK_METAL_PRESSUREPLATE_CLICK_ON,
+    BLOCK_METAL_STEP,
+    BLOCK_NOTE_BASEDRUM,
+    BLOCK_NOTE_BASS,
+    BLOCK_NOTE_BELL,
+    BLOCK_NOTE_CHIME,
+    BLOCK_NOTE_FLUTE,
+    BLOCK_NOTE_GUITAR,
+    BLOCK_NOTE_HARP,
+    BLOCK_NOTE_HAT,
+    BLOCK_NOTE_PLING,
+    BLOCK_NOTE_SNARE,
+    BLOCK_NOTE_XYLOPHONE,
+    BLOCK_PISTON_CONTRACT,
+    BLOCK_PISTON_EXTEND,
+    BLOCK_PORTAL_AMBIENT,
+    BLOCK_PORTAL_TRAVEL,
+    BLOCK_PORTAL_TRIGGER,
+    BLOCK_REDSTONE_TORCH_BURNOUT,
+    BLOCK_SAND_BREAK,
+    BLOCK_SAND_FALL,
+    BLOCK_SAND_HIT,
+    BLOCK_SAND_PLACE,
+    BLOCK_SAND_STEP,
+    BLOCK_SHULKER_BOX_CLOSE,
+    BLOCK_SHULKER_BOX_OPEN,
+    BLOCK_SLIME_BREAK,
+    BLOCK_SLIME_FALL,
+    BLOCK_SLIME_HIT,
+    BLOCK_SLIME_PLACE,
+    BLOCK_SLIME_STEP,
+    BLOCK_SNOW_BREAK,
+    BLOCK_SNOW_FALL,
+    BLOCK_SNOW_HIT,
+    BLOCK_SNOW_PLACE,
+    BLOCK_SNOW_STEP,
+    BLOCK_STONE_BREAK,
+    BLOCK_STONE_BUTTON_CLICK_OFF,
+    BLOCK_STONE_BUTTON_CLICK_ON,
+    BLOCK_STONE_FALL,
+    BLOCK_STONE_HIT,
+    BLOCK_STONE_PLACE,
+    BLOCK_STONE_PRESSUREPLATE_CLICK_OFF,
+    BLOCK_STONE_PRESSUREPLATE_CLICK_ON,
+    BLOCK_STONE_STEP,
+    BLOCK_TRIPWIRE_ATTACH,
+    BLOCK_TRIPWIRE_CLICK_OFF,
+    BLOCK_TRIPWIRE_CLICK_ON,
+    BLOCK_TRIPWIRE_DETACH,
+    BLOCK_WATERLILY_PLACE,
+    BLOCK_WATER_AMBIENT,
+    BLOCK_WOODEN_DOOR_CLOSE,
+    BLOCK_WOODEN_DOOR_OPEN,
+    BLOCK_WOODEN_TRAPDOOR_CLOSE,
+    BLOCK_WOODEN_TRAPDOOR_OPEN,
+    BLOCK_WOOD_BREAK,
+    BLOCK_WOOD_BUTTON_CLICK_OFF,
+    BLOCK_WOOD_BUTTON_CLICK_ON,
+    BLOCK_WOOD_FALL,
+    BLOCK_WOOD_HIT,
+    BLOCK_WOOD_PLACE,
+    BLOCK_WOOD_PRESSUREPLATE_CLICK_OFF,
+    BLOCK_WOOD_PRESSUREPLATE_CLICK_ON,
+    BLOCK_WOOD_STEP,
+    ENCHANT_THORNS_HIT,
+    ENTITY_ARMORSTAND_BREAK,
+    ENTITY_ARMORSTAND_FALL,
+    ENTITY_ARMORSTAND_HIT,
+    ENTITY_ARMORSTAND_PLACE,
+    ENTITY_ARROW_HIT,
+    ENTITY_ARROW_HIT_PLAYER,
+    ENTITY_ARROW_SHOOT,
+    ENTITY_BAT_AMBIENT,
+    ENTITY_BAT_DEATH,
+    ENTITY_BAT_HURT,
+    ENTITY_BAT_LOOP,
+    ENTITY_BAT_TAKEOFF,
+    ENTITY_BLAZE_AMBIENT,
+    ENTITY_BLAZE_BURN,
+    ENTITY_BLAZE_DEATH,
+    ENTITY_BLAZE_HURT,
+    ENTITY_BLAZE_SHOOT,
+    ENTITY_BOAT_PADDLE_LAND,
+    ENTITY_BOAT_PADDLE_WATER,
+    ENTITY_BOBBER_RETRIEVE,
+    ENTITY_BOBBER_SPLASH,
+    ENTITY_BOBBER_THROW,
+    ENTITY_CAT_AMBIENT,
+    ENTITY_CAT_DEATH,
+    ENTITY_CAT_HISS,
+    ENTITY_CAT_HURT,
+    ENTITY_CAT_PURR,
+    ENTITY_CAT_PURREOW,
+    ENTITY_CHICKEN_AMBIENT,
+    ENTITY_CHICKEN_DEATH,
+    ENTITY_CHICKEN_EGG,
+    ENTITY_CHICKEN_HURT,
+    ENTITY_CHICKEN_STEP,
+    ENTITY_COW_AMBIENT,
+    ENTITY_COW_DEATH,
+    ENTITY_COW_HURT,
+    ENTITY_COW_MILK,
+    ENTITY_COW_STEP,
+    ENTITY_CREEPER_DEATH,
+    ENTITY_CREEPER_HURT,
+    ENTITY_CREEPER_PRIMED,
+    ENTITY_DONKEY_AMBIENT,
+    ENTITY_DONKEY_ANGRY,
+    ENTITY_DONKEY_CHEST,
+    ENTITY_DONKEY_DEATH,
+    ENTITY_DONKEY_HURT,
+    ENTITY_EGG_THROW,
+    ENTITY_ELDER_GUARDIAN_AMBIENT,
+    ENTITY_ELDER_GUARDIAN_AMBIENT_LAND,
+    ENTITY_ELDER_GUARDIAN_CURSE,
+    ENTITY_ELDER_GUARDIAN_DEATH,
+    ENTITY_ELDER_GUARDIAN_DEATH_LAND,
+    ENTITY_ELDER_GUARDIAN_FLOP,
+    ENTITY_ELDER_GUARDIAN_HURT,
+    ENTITY_ELDER_GUARDIAN_HURT_LAND,
+    ENTITY_ENDERDRAGON_AMBIENT,
+    ENTITY_ENDERDRAGON_DEATH,
+    ENTITY_ENDERDRAGON_FIREBALL_EXPLODE,
+    ENTITY_ENDERDRAGON_FLAP,
+    ENTITY_ENDERDRAGON_GROWL,
+    ENTITY_ENDERDRAGON_HURT,
+    ENTITY_ENDERDRAGON_SHOOT,
+    ENTITY_ENDEREYE_DEATH,
+    ENTITY_ENDEREYE_LAUNCH,
+    ENTITY_ENDERMEN_AMBIENT,
+    ENTITY_ENDERMEN_DEATH,
+    ENTITY_ENDERMEN_HURT,
+    ENTITY_ENDERMEN_SCREAM,
+    ENTITY_ENDERMEN_STARE,
+    ENTITY_ENDERMEN_TELEPORT,
+    ENTITY_ENDERMITE_AMBIENT,
+    ENTITY_ENDERMITE_DEATH,
+    ENTITY_ENDERMITE_HURT,
+    ENTITY_ENDERMITE_STEP,
+    ENTITY_ENDERPEARL_THROW,
+    ENTITY_EVOCATION_FANGS_ATTACK,
+    ENTITY_EVOCATION_ILLAGER_AMBIENT,
+    ENTITY_EVOCATION_ILLAGER_CAST_SPELL,
+    ENTITY_EVOCATION_ILLAGER_DEATH,
+    ENTITY_EVOCATION_ILLAGER_HURT,
+    ENTITY_EVOCATION_ILLAGER_PREPARE_ATTACK,
+    ENTITY_EVOCATION_ILLAGER_PREPARE_SUMMON,
+    ENTITY_EVOCATION_ILLAGER_PREPARE_WOLOLO,
+    ENTITY_EXPERIENCE_BOTTLE_THROW,
+    ENTITY_EXPERIENCE_ORB_PICKUP,
+    ENTITY_FIREWORK_BLAST,
+    ENTITY_FIREWORK_BLAST_FAR,
+    ENTITY_FIREWORK_LARGE_BLAST,
+    ENTITY_FIREWORK_LARGE_BLAST_FAR,
+    ENTITY_FIREWORK_LAUNCH,
+    ENTITY_FIREWORK_SHOOT,
+    ENTITY_FIREWORK_TWINKLE,
+    ENTITY_FIREWORK_TWINKLE_FAR,
+    ENTITY_GENERIC_BIG_FALL,
+    ENTITY_GENERIC_BURN,
+    ENTITY_GENERIC_DEATH,
+    ENTITY_GENERIC_DRINK,
+    ENTITY_GENERIC_EAT,
+    ENTITY_GENERIC_EXPLODE,
+    ENTITY_GENERIC_EXTINGUISH_FIRE,
+    ENTITY_GENERIC_HURT,
+    ENTITY_GENERIC_SMALL_FALL,
+    ENTITY_GENERIC_SPLASH,
+    ENTITY_GENERIC_SWIM,
+    ENTITY_GHAST_AMBIENT,
+    ENTITY_GHAST_DEATH,
+    ENTITY_GHAST_HURT,
+    ENTITY_GHAST_SCREAM,
+    ENTITY_GHAST_SHOOT,
+    ENTITY_GHAST_WARN,
+    ENTITY_GUARDIAN_AMBIENT,
+    ENTITY_GUARDIAN_AMBIENT_LAND,
+    ENTITY_GUARDIAN_ATTACK,
+    ENTITY_GUARDIAN_DEATH,
+    ENTITY_GUARDIAN_DEATH_LAND,
+    ENTITY_GUARDIAN_FLOP,
+    ENTITY_GUARDIAN_HURT,
+    ENTITY_GUARDIAN_HURT_LAND,
+    ENTITY_HORSE_AMBIENT,
+    ENTITY_HORSE_ANGRY,
+    ENTITY_HORSE_ARMOR,
+    ENTITY_HORSE_BREATHE,
+    ENTITY_HORSE_DEATH,
+    ENTITY_HORSE_EAT,
+    ENTITY_HORSE_GALLOP,
+    ENTITY_HORSE_HURT,
+    ENTITY_HORSE_JUMP,
+    ENTITY_HORSE_LAND,
+    ENTITY_HORSE_SADDLE,
+    ENTITY_HORSE_STEP,
+    ENTITY_HORSE_STEP_WOOD,
+    ENTITY_HOSTILE_BIG_FALL,
+    ENTITY_HOSTILE_DEATH,
+    ENTITY_HOSTILE_HURT,
+    ENTITY_HOSTILE_SMALL_FALL,
+    ENTITY_HOSTILE_SPLASH,
+    ENTITY_HOSTILE_SWIM,
+    ENTITY_HUSK_AMBIENT,
+    ENTITY_HUSK_DEATH,
+    ENTITY_HUSK_HURT,
+    ENTITY_HUSK_STEP,
+    ENTITY_ILLUSION_ILLAGER_AMBIENT,
+    ENTITY_ILLUSION_ILLAGER_CAST_SPELL,
+    ENTITY_ILLUSION_ILLAGER_DEATH,
+    ENTITY_ILLUSION_ILLAGER_HURT,
+    ENTITY_ILLUSION_ILLAGER_MIRROR_MOVE,
+    ENTITY_ILLUSION_ILLAGER_PREPARE_BLINDNESS,
+    ENTITY_ILLUSION_ILLAGER_PREPARE_MIRROR,
+    ENTITY_IRONGOLEM_ATTACK,
+    ENTITY_IRONGOLEM_DEATH,
+    ENTITY_IRONGOLEM_HURT,
+    ENTITY_IRONGOLEM_STEP,
+    ENTITY_ITEMFRAME_ADD_ITEM,
+    ENTITY_ITEMFRAME_BREAK,
+    ENTITY_ITEMFRAME_PLACE,
+    ENTITY_ITEMFRAME_REMOVE_ITEM,
+    ENTITY_ITEMFRAME_ROTATE_ITEM,
+    ENTITY_ITEM_BREAK,
+    ENTITY_ITEM_PICKUP,
+    ENTITY_LEASHKNOT_BREAK,
+    ENTITY_LEASHKNOT_PLACE,
+    ENTITY_LIGHTNING_IMPACT,
+    ENTITY_LIGHTNING_THUNDER,
+    ENTITY_LINGERINGPOTION_THROW,
+    ENTITY_LLAMA_AMBIENT,
+    ENTITY_LLAMA_ANGRY,
+    ENTITY_LLAMA_CHEST,
+    ENTITY_LLAMA_DEATH,
+    ENTITY_LLAMA_EAT,
+    ENTITY_LLAMA_HURT,
+    ENTITY_LLAMA_SPIT,
+    ENTITY_LLAMA_STEP,
+    ENTITY_LLAMA_SWAG,
+    ENTITY_MAGMACUBE_DEATH,
+    ENTITY_MAGMACUBE_HURT,
+    ENTITY_MAGMACUBE_JUMP,
+    ENTITY_MAGMACUBE_SQUISH,
+    ENTITY_MINECART_INSIDE,
+    ENTITY_MINECART_RIDING,
+    ENTITY_MOOSHROOM_SHEAR,
+    ENTITY_MULE_AMBIENT,
+    ENTITY_MULE_CHEST,
+    ENTITY_MULE_DEATH,
+    ENTITY_MULE_HURT,
+    ENTITY_PAINTING_BREAK,
+    ENTITY_PAINTING_PLACE,
+    ENTITY_PARROT_AMBIENT,
+    ENTITY_PARROT_DEATH,
+    ENTITY_PARROT_EAT,
+    ENTITY_PARROT_FLY,
+    ENTITY_PARROT_HURT,
+    ENTITY_PARROT_IMITATE_BLAZE,
+    ENTITY_PARROT_IMITATE_CREEPER,
+    ENTITY_PARROT_IMITATE_ELDER_GUARDIAN,
+    ENTITY_PARROT_IMITATE_ENDERDRAGON,
+    ENTITY_PARROT_IMITATE_ENDERMAN,
+    ENTITY_PARROT_IMITATE_ENDERMITE,
+    ENTITY_PARROT_IMITATE_EVOCATION_ILLAGER,
+    ENTITY_PARROT_IMITATE_GHAST,
+    ENTITY_PARROT_IMITATE_HUSK,
+    ENTITY_PARROT_IMITATE_ILLUSION_ILLAGER,
+    ENTITY_PARROT_IMITATE_MAGMACUBE,
+    ENTITY_PARROT_IMITATE_POLAR_BEAR,
+    ENTITY_PARROT_IMITATE_SHULKER,
+    ENTITY_PARROT_IMITATE_SILVERFISH,
+    ENTITY_PARROT_IMITATE_SKELETON,
+    ENTITY_PARROT_IMITATE_SLIME,
+    ENTITY_PARROT_IMITATE_SPIDER,
+    ENTITY_PARROT_IMITATE_STRAY,
+    ENTITY_PARROT_IMITATE_VEX,
+    ENTITY_PARROT_IMITATE_VINDICATION_ILLAGER,
+    ENTITY_PARROT_IMITATE_WITCH,
+    ENTITY_PARROT_IMITATE_WITHER,
+    ENTITY_PARROT_IMITATE_WITHER_SKELETON,
+    ENTITY_PARROT_IMITATE_WOLF,
+    ENTITY_PARROT_IMITATE_ZOMBIE,
+    ENTITY_PARROT_IMITATE_ZOMBIE_PIGMAN,
+    ENTITY_PARROT_IMITATE_ZOMBIE_VILLAGER,
+    ENTITY_PARROT_STEP,
+    ENTITY_PIG_AMBIENT,
+    ENTITY_PIG_DEATH,
+    ENTITY_PIG_HURT,
+    ENTITY_PIG_SADDLE,
+    ENTITY_PIG_STEP,
+    ENTITY_PLAYER_ATTACK_CRIT,
+    ENTITY_PLAYER_ATTACK_KNOCKBACK,
+    ENTITY_PLAYER_ATTACK_NODAMAGE,
+    ENTITY_PLAYER_ATTACK_STRONG,
+    ENTITY_PLAYER_ATTACK_SWEEP,
+    ENTITY_PLAYER_ATTACK_WEAK,
+    ENTITY_PLAYER_BIG_FALL,
+    ENTITY_PLAYER_BREATH,
+    ENTITY_PLAYER_BURP,
+    ENTITY_PLAYER_DEATH,
+    ENTITY_PLAYER_HURT,
+    ENTITY_PLAYER_HURT_DROWN,
+    ENTITY_PLAYER_HURT_ON_FIRE,
+    ENTITY_PLAYER_LEVELUP,
+    ENTITY_PLAYER_SMALL_FALL,
+    ENTITY_PLAYER_SPLASH,
+    ENTITY_PLAYER_SWIM,
+    ENTITY_POLAR_BEAR_AMBIENT,
+    ENTITY_POLAR_BEAR_BABY_AMBIENT,
+    ENTITY_POLAR_BEAR_DEATH,
+    ENTITY_POLAR_BEAR_HURT,
+    ENTITY_POLAR_BEAR_STEP,
+    ENTITY_POLAR_BEAR_WARNING,
+    ENTITY_RABBIT_AMBIENT,
+    ENTITY_RABBIT_ATTACK,
+    ENTITY_RABBIT_DEATH,
+    ENTITY_RABBIT_HURT,
+    ENTITY_RABBIT_JUMP,
+    ENTITY_SHEEP_AMBIENT,
+    ENTITY_SHEEP_DEATH,
+    ENTITY_SHEEP_HURT,
+    ENTITY_SHEEP_SHEAR,
+    ENTITY_SHEEP_STEP,
+    ENTITY_SHULKER_AMBIENT,
+    ENTITY_SHULKER_BULLET_HIT,
+    ENTITY_SHULKER_BULLET_HURT,
+    ENTITY_SHULKER_CLOSE,
+    ENTITY_SHULKER_DEATH,
+    ENTITY_SHULKER_HURT,
+    ENTITY_SHULKER_HURT_CLOSED,
+    ENTITY_SHULKER_OPEN,
+    ENTITY_SHULKER_SHOOT,
+    ENTITY_SHULKER_TELEPORT,
+    ENTITY_SILVERFISH_AMBIENT,
+    ENTITY_SILVERFISH_DEATH,
+    ENTITY_SILVERFISH_HURT,
+    ENTITY_SILVERFISH_STEP,
+    ENTITY_SKELETON_AMBIENT,
+    ENTITY_SKELETON_DEATH,
+    ENTITY_SKELETON_HORSE_AMBIENT,
+    ENTITY_SKELETON_HORSE_DEATH,
+    ENTITY_SKELETON_HORSE_HURT,
+    ENTITY_SKELETON_HURT,
+    ENTITY_SKELETON_SHOOT,
+    ENTITY_SKELETON_STEP,
+    ENTITY_SLIME_ATTACK,
+    ENTITY_SLIME_DEATH,
+    ENTITY_SLIME_HURT,
+    ENTITY_SLIME_JUMP,
+    ENTITY_SLIME_SQUISH,
+    ENTITY_SMALL_MAGMACUBE_DEATH,
+    ENTITY_SMALL_MAGMACUBE_HURT,
+    ENTITY_SMALL_MAGMACUBE_SQUISH,
+    ENTITY_SMALL_SLIME_DEATH,
+    ENTITY_SMALL_SLIME_HURT,
+    ENTITY_SMALL_SLIME_JUMP,
+    ENTITY_SMALL_SLIME_SQUISH,
+    ENTITY_SNOWBALL_THROW,
+    ENTITY_SNOWMAN_AMBIENT,
+    ENTITY_SNOWMAN_DEATH,
+    ENTITY_SNOWMAN_HURT,
+    ENTITY_SNOWMAN_SHOOT,
+    ENTITY_SPIDER_AMBIENT,
+    ENTITY_SPIDER_DEATH,
+    ENTITY_SPIDER_HURT,
+    ENTITY_SPIDER_STEP,
+    ENTITY_SPLASH_POTION_BREAK,
+    ENTITY_SPLASH_POTION_THROW,
+    ENTITY_SQUID_AMBIENT,
+    ENTITY_SQUID_DEATH,
+    ENTITY_SQUID_HURT,
+    ENTITY_STRAY_AMBIENT,
+    ENTITY_STRAY_DEATH,
+    ENTITY_STRAY_HURT,
+    ENTITY_STRAY_STEP,
+    ENTITY_TNT_PRIMED,
+    ENTITY_VEX_AMBIENT,
+    ENTITY_VEX_CHARGE,
+    ENTITY_VEX_DEATH,
+    ENTITY_VEX_HURT,
+    ENTITY_VILLAGER_AMBIENT,
+    ENTITY_VILLAGER_DEATH,
+    ENTITY_VILLAGER_HURT,
+    ENTITY_VILLAGER_NO,
+    ENTITY_VILLAGER_TRADING,
+    ENTITY_VILLAGER_YES,
+    ENTITY_VINDICATION_ILLAGER_AMBIENT,
+    ENTITY_VINDICATION_ILLAGER_DEATH,
+    ENTITY_VINDICATION_ILLAGER_HURT,
+    ENTITY_WITCH_AMBIENT,
+    ENTITY_WITCH_DEATH,
+    ENTITY_WITCH_DRINK,
+    ENTITY_WITCH_HURT,
+    ENTITY_WITCH_THROW,
+    ENTITY_WITHER_AMBIENT,
+    ENTITY_WITHER_BREAK_BLOCK,
+    ENTITY_WITHER_DEATH,
+    ENTITY_WITHER_HURT,
+    ENTITY_WITHER_SHOOT,
+    ENTITY_WITHER_SKELETON_AMBIENT,
+    ENTITY_WITHER_SKELETON_DEATH,
+    ENTITY_WITHER_SKELETON_HURT,
+    ENTITY_WITHER_SKELETON_STEP,
+    ENTITY_WITHER_SPAWN,
+    ENTITY_WOLF_AMBIENT,
+    ENTITY_WOLF_DEATH,
+    ENTITY_WOLF_GROWL,
+    ENTITY_WOLF_HOWL,
+    ENTITY_WOLF_HURT,
+    ENTITY_WOLF_PANT,
+    ENTITY_WOLF_SHAKE,
+    ENTITY_WOLF_STEP,
+    ENTITY_WOLF_WHINE,
+    ENTITY_ZOMBIE_AMBIENT,
+    ENTITY_ZOMBIE_ATTACK_DOOR_WOOD,
+    ENTITY_ZOMBIE_ATTACK_IRON_DOOR,
+    ENTITY_ZOMBIE_BREAK_DOOR_WOOD,
+    ENTITY_ZOMBIE_DEATH,
+    ENTITY_ZOMBIE_HORSE_AMBIENT,
+    ENTITY_ZOMBIE_HORSE_DEATH,
+    ENTITY_ZOMBIE_HORSE_HURT,
+    ENTITY_ZOMBIE_HURT,
+    ENTITY_ZOMBIE_INFECT,
+    ENTITY_ZOMBIE_PIG_AMBIENT,
+    ENTITY_ZOMBIE_PIG_ANGRY,
+    ENTITY_ZOMBIE_PIG_DEATH,
+    ENTITY_ZOMBIE_PIG_HURT,
+    ENTITY_ZOMBIE_STEP,
+    ENTITY_ZOMBIE_VILLAGER_AMBIENT,
+    ENTITY_ZOMBIE_VILLAGER_CONVERTED,
+    ENTITY_ZOMBIE_VILLAGER_CURE,
+    ENTITY_ZOMBIE_VILLAGER_DEATH,
+    ENTITY_ZOMBIE_VILLAGER_HURT,
+    ENTITY_ZOMBIE_VILLAGER_STEP,
+    ITEM_ARMOR_EQUIP_CHAIN,
+    ITEM_ARMOR_EQUIP_DIAMOND,
+    ITEM_ARMOR_EQUIP_ELYTRA,
+    ITEM_ARMOR_EQUIP_GENERIC,
+    ITEM_ARMOR_EQUIP_GOLD,
+    ITEM_ARMOR_EQUIP_IRON,
+    ITEM_ARMOR_EQUIP_LEATHER,
+    ITEM_BOTTLE_EMPTY,
+    ITEM_BOTTLE_FILL,
+    ITEM_BOTTLE_FILL_DRAGONBREATH,
+    ITEM_BUCKET_EMPTY,
+    ITEM_BUCKET_EMPTY_LAVA,
+    ITEM_BUCKET_FILL,
+    ITEM_BUCKET_FILL_LAVA,
+    ITEM_CHORUS_FRUIT_TELEPORT,
+    ITEM_ELYTRA_FLYING,
+    ITEM_FIRECHARGE_USE,
+    ITEM_FLINTANDSTEEL_USE,
+    ITEM_HOE_TILL,
+    ITEM_SHIELD_BLOCK,
+    ITEM_SHIELD_BREAK,
+    ITEM_SHOVEL_FLATTEN,
+    ITEM_TOTEM_USE,
+    MUSIC_CREATIVE,
+    MUSIC_CREDITS,
+    MUSIC_DRAGON,
+    MUSIC_END,
+    MUSIC_GAME,
+    MUSIC_MENU,
+    MUSIC_NETHER,
+    RECORD_11,
+    RECORD_13,
+    RECORD_BLOCKS,
+    RECORD_CAT,
+    RECORD_CHIRP,
+    RECORD_FAR,
+    RECORD_MALL,
+    RECORD_MELLOHI,
+    RECORD_STAL,
+    RECORD_STRAD,
+    RECORD_WAIT,
+    RECORD_WARD,
+    UI_BUTTON_CLICK,
+    UI_TOAST_CHALLENGE_COMPLETE,
+    UI_TOAST_IN,
+    UI_TOAST_OUT,
+    WEATHER_RAIN,
+    WEATHER_RAIN_ABOVE;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I36" authorId="0" shapeId="0" xr:uid="{2339DE52-4DC1-497A-88E7-A6981CA86910}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Bryan_lzh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Finder: Self()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="1" shapeId="0" xr:uid="{BE172CF9-72F9-4312-B12B-0145E65EFD8F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    AMBIENT_CAVE,
+    BLOCK_ANVIL_BREAK,
+    BLOCK_ANVIL_DESTROY,
+    BLOCK_ANVIL_FALL,
+    BLOCK_ANVIL_HIT,
+    BLOCK_ANVIL_LAND,
+    BLOCK_ANVIL_PLACE,
+    BLOCK_ANVIL_STEP,
+    BLOCK_ANVIL_USE,
+    BLOCK_BREWING_STAND_BREW,
+    BLOCK_CHEST_CLOSE,
+    BLOCK_CHEST_LOCKED,
+    BLOCK_CHEST_OPEN,
+    BLOCK_CHORUS_FLOWER_DEATH,
+    BLOCK_CHORUS_FLOWER_GROW,
+    BLOCK_CLOTH_BREAK,
+    BLOCK_CLOTH_FALL,
+    BLOCK_CLOTH_HIT,
+    BLOCK_CLOTH_PLACE,
+    BLOCK_CLOTH_STEP,
+    BLOCK_COMPARATOR_CLICK,
+    BLOCK_DISPENSER_DISPENSE,
+    BLOCK_DISPENSER_FAIL,
+    BLOCK_DISPENSER_LAUNCH,
+    BLOCK_ENCHANTMENT_TABLE_USE,
+    BLOCK_ENDERCHEST_CLOSE,
+    BLOCK_ENDERCHEST_OPEN,
+    BLOCK_END_GATEWAY_SPAWN,
+    BLOCK_END_PORTAL_FRAME_FILL,
+    BLOCK_END_PORTAL_SPAWN,
+    BLOCK_FENCE_GATE_CLOSE,
+    BLOCK_FENCE_GATE_OPEN,
+    BLOCK_FIRE_AMBIENT,
+    BLOCK_FIRE_EXTINGUISH,
+    BLOCK_FURNACE_FIRE_CRACKLE,
+    BLOCK_GLASS_BREAK,
+    BLOCK_GLASS_FALL,
+    BLOCK_GLASS_HIT,
+    BLOCK_GLASS_PLACE,
+    BLOCK_GLASS_STEP,
+    BLOCK_GRASS_BREAK,
+    BLOCK_GRASS_FALL,
+    BLOCK_GRASS_HIT,
+    BLOCK_GRASS_PLACE,
+    BLOCK_GRASS_STEP,
+    BLOCK_GRAVEL_BREAK,
+    BLOCK_GRAVEL_FALL,
+    BLOCK_GRAVEL_HIT,
+    BLOCK_GRAVEL_PLACE,
+    BLOCK_GRAVEL_STEP,
+    BLOCK_IRON_DOOR_CLOSE,
+    BLOCK_IRON_DOOR_OPEN,
+    BLOCK_IRON_TRAPDOOR_CLOSE,
+    BLOCK_IRON_TRAPDOOR_OPEN,
+    BLOCK_LADDER_BREAK,
+    BLOCK_LADDER_FALL,
+    BLOCK_LADDER_HIT,
+    BLOCK_LADDER_PLACE,
+    BLOCK_LADDER_STEP,
+    BLOCK_LAVA_AMBIENT,
+    BLOCK_LAVA_EXTINGUISH,
+    BLOCK_LAVA_POP,
+    BLOCK_LEVER_CLICK,
+    BLOCK_METAL_BREAK,
+    BLOCK_METAL_FALL,
+    BLOCK_METAL_HIT,
+    BLOCK_METAL_PLACE,
+    BLOCK_METAL_PRESSUREPLATE_CLICK_OFF,
+    BLOCK_METAL_PRESSUREPLATE_CLICK_ON,
+    BLOCK_METAL_STEP,
+    BLOCK_NOTE_BASEDRUM,
+    BLOCK_NOTE_BASS,
+    BLOCK_NOTE_BELL,
+    BLOCK_NOTE_CHIME,
+    BLOCK_NOTE_FLUTE,
+    BLOCK_NOTE_GUITAR,
+    BLOCK_NOTE_HARP,
+    BLOCK_NOTE_HAT,
+    BLOCK_NOTE_PLING,
+    BLOCK_NOTE_SNARE,
+    BLOCK_NOTE_XYLOPHONE,
+    BLOCK_PISTON_CONTRACT,
+    BLOCK_PISTON_EXTEND,
+    BLOCK_PORTAL_AMBIENT,
+    BLOCK_PORTAL_TRAVEL,
+    BLOCK_PORTAL_TRIGGER,
+    BLOCK_REDSTONE_TORCH_BURNOUT,
+    BLOCK_SAND_BREAK,
+    BLOCK_SAND_FALL,
+    BLOCK_SAND_HIT,
+    BLOCK_SAND_PLACE,
+    BLOCK_SAND_STEP,
+    BLOCK_SHULKER_BOX_CLOSE,
+    BLOCK_SHULKER_BOX_OPEN,
+    BLOCK_SLIME_BREAK,
+    BLOCK_SLIME_FALL,
+    BLOCK_SLIME_HIT,
+    BLOCK_SLIME_PLACE,
+    BLOCK_SLIME_STEP,
+    BLOCK_SNOW_BREAK,
+    BLOCK_SNOW_FALL,
+    BLOCK_SNOW_HIT,
+    BLOCK_SNOW_PLACE,
+    BLOCK_SNOW_STEP,
+    BLOCK_STONE_BREAK,
+    BLOCK_STONE_BUTTON_CLICK_OFF,
+    BLOCK_STONE_BUTTON_CLICK_ON,
+    BLOCK_STONE_FALL,
+    BLOCK_STONE_HIT,
+    BLOCK_STONE_PLACE,
+    BLOCK_STONE_PRESSUREPLATE_CLICK_OFF,
+    BLOCK_STONE_PRESSUREPLATE_CLICK_ON,
+    BLOCK_STONE_STEP,
+    BLOCK_TRIPWIRE_ATTACH,
+    BLOCK_TRIPWIRE_CLICK_OFF,
+    BLOCK_TRIPWIRE_CLICK_ON,
+    BLOCK_TRIPWIRE_DETACH,
+    BLOCK_WATERLILY_PLACE,
+    BLOCK_WATER_AMBIENT,
+    BLOCK_WOODEN_DOOR_CLOSE,
+    BLOCK_WOODEN_DOOR_OPEN,
+    BLOCK_WOODEN_TRAPDOOR_CLOSE,
+    BLOCK_WOODEN_TRAPDOOR_OPEN,
+    BLOCK_WOOD_BREAK,
+    BLOCK_WOOD_BUTTON_CLICK_OFF,
+    BLOCK_WOOD_BUTTON_CLICK_ON,
+    BLOCK_WOOD_FALL,
+    BLOCK_WOOD_HIT,
+    BLOCK_WOOD_PLACE,
+    BLOCK_WOOD_PRESSUREPLATE_CLICK_OFF,
+    BLOCK_WOOD_PRESSUREPLATE_CLICK_ON,
+    BLOCK_WOOD_STEP,
+    ENCHANT_THORNS_HIT,
+    ENTITY_ARMORSTAND_BREAK,
+    ENTITY_ARMORSTAND_FALL,
+    ENTITY_ARMORSTAND_HIT,
+    ENTITY_ARMORSTAND_PLACE,
+    ENTITY_ARROW_HIT,
+    ENTITY_ARROW_HIT_PLAYER,
+    ENTITY_ARROW_SHOOT,
+    ENTITY_BAT_AMBIENT,
+    ENTITY_BAT_DEATH,
+    ENTITY_BAT_HURT,
+    ENTITY_BAT_LOOP,
+    ENTITY_BAT_TAKEOFF,
+    ENTITY_BLAZE_AMBIENT,
+    ENTITY_BLAZE_BURN,
+    ENTITY_BLAZE_DEATH,
+    ENTITY_BLAZE_HURT,
+    ENTITY_BLAZE_SHOOT,
+    ENTITY_BOAT_PADDLE_LAND,
+    ENTITY_BOAT_PADDLE_WATER,
+    ENTITY_BOBBER_RETRIEVE,
+    ENTITY_BOBBER_SPLASH,
+    ENTITY_BOBBER_THROW,
+    ENTITY_CAT_AMBIENT,
+    ENTITY_CAT_DEATH,
+    ENTITY_CAT_HISS,
+    ENTITY_CAT_HURT,
+    ENTITY_CAT_PURR,
+    ENTITY_CAT_PURREOW,
+    ENTITY_CHICKEN_AMBIENT,
+    ENTITY_CHICKEN_DEATH,
+    ENTITY_CHICKEN_EGG,
+    ENTITY_CHICKEN_HURT,
+    ENTITY_CHICKEN_STEP,
+    ENTITY_COW_AMBIENT,
+    ENTITY_COW_DEATH,
+    ENTITY_COW_HURT,
+    ENTITY_COW_MILK,
+    ENTITY_COW_STEP,
+    ENTITY_CREEPER_DEATH,
+    ENTITY_CREEPER_HURT,
+    ENTITY_CREEPER_PRIMED,
+    ENTITY_DONKEY_AMBIENT,
+    ENTITY_DONKEY_ANGRY,
+    ENTITY_DONKEY_CHEST,
+    ENTITY_DONKEY_DEATH,
+    ENTITY_DONKEY_HURT,
+    ENTITY_EGG_THROW,
+    ENTITY_ELDER_GUARDIAN_AMBIENT,
+    ENTITY_ELDER_GUARDIAN_AMBIENT_LAND,
+    ENTITY_ELDER_GUARDIAN_CURSE,
+    ENTITY_ELDER_GUARDIAN_DEATH,
+    ENTITY_ELDER_GUARDIAN_DEATH_LAND,
+    ENTITY_ELDER_GUARDIAN_FLOP,
+    ENTITY_ELDER_GUARDIAN_HURT,
+    ENTITY_ELDER_GUARDIAN_HURT_LAND,
+    ENTITY_ENDERDRAGON_AMBIENT,
+    ENTITY_ENDERDRAGON_DEATH,
+    ENTITY_ENDERDRAGON_FIREBALL_EXPLODE,
+    ENTITY_ENDERDRAGON_FLAP,
+    ENTITY_ENDERDRAGON_GROWL,
+    ENTITY_ENDERDRAGON_HURT,
+    ENTITY_ENDERDRAGON_SHOOT,
+    ENTITY_ENDEREYE_DEATH,
+    ENTITY_ENDEREYE_LAUNCH,
+    ENTITY_ENDERMEN_AMBIENT,
+    ENTITY_ENDERMEN_DEATH,
+    ENTITY_ENDERMEN_HURT,
+    ENTITY_ENDERMEN_SCREAM,
+    ENTITY_ENDERMEN_STARE,
+    ENTITY_ENDERMEN_TELEPORT,
+    ENTITY_ENDERMITE_AMBIENT,
+    ENTITY_ENDERMITE_DEATH,
+    ENTITY_ENDERMITE_HURT,
+    ENTITY_ENDERMITE_STEP,
+    ENTITY_ENDERPEARL_THROW,
+    ENTITY_EVOCATION_FANGS_ATTACK,
+    ENTITY_EVOCATION_ILLAGER_AMBIENT,
+    ENTITY_EVOCATION_ILLAGER_CAST_SPELL,
+    ENTITY_EVOCATION_ILLAGER_DEATH,
+    ENTITY_EVOCATION_ILLAGER_HURT,
+    ENTITY_EVOCATION_ILLAGER_PREPARE_ATTACK,
+    ENTITY_EVOCATION_ILLAGER_PREPARE_SUMMON,
+    ENTITY_EVOCATION_ILLAGER_PREPARE_WOLOLO,
+    ENTITY_EXPERIENCE_BOTTLE_THROW,
+    ENTITY_EXPERIENCE_ORB_PICKUP,
+    ENTITY_FIREWORK_BLAST,
+    ENTITY_FIREWORK_BLAST_FAR,
+    ENTITY_FIREWORK_LARGE_BLAST,
+    ENTITY_FIREWORK_LARGE_BLAST_FAR,
+    ENTITY_FIREWORK_LAUNCH,
+    ENTITY_FIREWORK_SHOOT,
+    ENTITY_FIREWORK_TWINKLE,
+    ENTITY_FIREWORK_TWINKLE_FAR,
+    ENTITY_GENERIC_BIG_FALL,
+    ENTITY_GENERIC_BURN,
+    ENTITY_GENERIC_DEATH,
+    ENTITY_GENERIC_DRINK,
+    ENTITY_GENERIC_EAT,
+    ENTITY_GENERIC_EXPLODE,
+    ENTITY_GENERIC_EXTINGUISH_FIRE,
+    ENTITY_GENERIC_HURT,
+    ENTITY_GENERIC_SMALL_FALL,
+    ENTITY_GENERIC_SPLASH,
+    ENTITY_GENERIC_SWIM,
+    ENTITY_GHAST_AMBIENT,
+    ENTITY_GHAST_DEATH,
+    ENTITY_GHAST_HURT,
+    ENTITY_GHAST_SCREAM,
+    ENTITY_GHAST_SHOOT,
+    ENTITY_GHAST_WARN,
+    ENTITY_GUARDIAN_AMBIENT,
+    ENTITY_GUARDIAN_AMBIENT_LAND,
+    ENTITY_GUARDIAN_ATTACK,
+    ENTITY_GUARDIAN_DEATH,
+    ENTITY_GUARDIAN_DEATH_LAND,
+    ENTITY_GUARDIAN_FLOP,
+    ENTITY_GUARDIAN_HURT,
+    ENTITY_GUARDIAN_HURT_LAND,
+    ENTITY_HORSE_AMBIENT,
+    ENTITY_HORSE_ANGRY,
+    ENTITY_HORSE_ARMOR,
+    ENTITY_HORSE_BREATHE,
+    ENTITY_HORSE_DEATH,
+    ENTITY_HORSE_EAT,
+    ENTITY_HORSE_GALLOP,
+    ENTITY_HORSE_HURT,
+    ENTITY_HORSE_JUMP,
+    ENTITY_HORSE_LAND,
+    ENTITY_HORSE_SADDLE,
+    ENTITY_HORSE_STEP,
+    ENTITY_HORSE_STEP_WOOD,
+    ENTITY_HOSTILE_BIG_FALL,
+    ENTITY_HOSTILE_DEATH,
+    ENTITY_HOSTILE_HURT,
+    ENTITY_HOSTILE_SMALL_FALL,
+    ENTITY_HOSTILE_SPLASH,
+    ENTITY_HOSTILE_SWIM,
+    ENTITY_HUSK_AMBIENT,
+    ENTITY_HUSK_DEATH,
+    ENTITY_HUSK_HURT,
+    ENTITY_HUSK_STEP,
+    ENTITY_ILLUSION_ILLAGER_AMBIENT,
+    ENTITY_ILLUSION_ILLAGER_CAST_SPELL,
+    ENTITY_ILLUSION_ILLAGER_DEATH,
+    ENTITY_ILLUSION_ILLAGER_HURT,
+    ENTITY_ILLUSION_ILLAGER_MIRROR_MOVE,
+    ENTITY_ILLUSION_ILLAGER_PREPARE_BLINDNESS,
+    ENTITY_ILLUSION_ILLAGER_PREPARE_MIRROR,
+    ENTITY_IRONGOLEM_ATTACK,
+    ENTITY_IRONGOLEM_DEATH,
+    ENTITY_IRONGOLEM_HURT,
+    ENTITY_IRONGOLEM_STEP,
+    ENTITY_ITEMFRAME_ADD_ITEM,
+    ENTITY_ITEMFRAME_BREAK,
+    ENTITY_ITEMFRAME_PLACE,
+    ENTITY_ITEMFRAME_REMOVE_ITEM,
+    ENTITY_ITEMFRAME_ROTATE_ITEM,
+    ENTITY_ITEM_BREAK,
+    ENTITY_ITEM_PICKUP,
+    ENTITY_LEASHKNOT_BREAK,
+    ENTITY_LEASHKNOT_PLACE,
+    ENTITY_LIGHTNING_IMPACT,
+    ENTITY_LIGHTNING_THUNDER,
+    ENTITY_LINGERINGPOTION_THROW,
+    ENTITY_LLAMA_AMBIENT,
+    ENTITY_LLAMA_ANGRY,
+    ENTITY_LLAMA_CHEST,
+    ENTITY_LLAMA_DEATH,
+    ENTITY_LLAMA_EAT,
+    ENTITY_LLAMA_HURT,
+    ENTITY_LLAMA_SPIT,
+    ENTITY_LLAMA_STEP,
+    ENTITY_LLAMA_SWAG,
+    ENTITY_MAGMACUBE_DEATH,
+    ENTITY_MAGMACUBE_HURT,
+    ENTITY_MAGMACUBE_JUMP,
+    ENTITY_MAGMACUBE_SQUISH,
+    ENTITY_MINECART_INSIDE,
+    ENTITY_MINECART_RIDING,
+    ENTITY_MOOSHROOM_SHEAR,
+    ENTITY_MULE_AMBIENT,
+    ENTITY_MULE_CHEST,
+    ENTITY_MULE_DEATH,
+    ENTITY_MULE_HURT,
+    ENTITY_PAINTING_BREAK,
+    ENTITY_PAINTING_PLACE,
+    ENTITY_PARROT_AMBIENT,
+    ENTITY_PARROT_DEATH,
+    ENTITY_PARROT_EAT,
+    ENTITY_PARROT_FLY,
+    ENTITY_PARROT_HURT,
+    ENTITY_PARROT_IMITATE_BLAZE,
+    ENTITY_PARROT_IMITATE_CREEPER,
+    ENTITY_PARROT_IMITATE_ELDER_GUARDIAN,
+    ENTITY_PARROT_IMITATE_ENDERDRAGON,
+    ENTITY_PARROT_IMITATE_ENDERMAN,
+    ENTITY_PARROT_IMITATE_ENDERMITE,
+    ENTITY_PARROT_IMITATE_EVOCATION_ILLAGER,
+    ENTITY_PARROT_IMITATE_GHAST,
+    ENTITY_PARROT_IMITATE_HUSK,
+    ENTITY_PARROT_IMITATE_ILLUSION_ILLAGER,
+    ENTITY_PARROT_IMITATE_MAGMACUBE,
+    ENTITY_PARROT_IMITATE_POLAR_BEAR,
+    ENTITY_PARROT_IMITATE_SHULKER,
+    ENTITY_PARROT_IMITATE_SILVERFISH,
+    ENTITY_PARROT_IMITATE_SKELETON,
+    ENTITY_PARROT_IMITATE_SLIME,
+    ENTITY_PARROT_IMITATE_SPIDER,
+    ENTITY_PARROT_IMITATE_STRAY,
+    ENTITY_PARROT_IMITATE_VEX,
+    ENTITY_PARROT_IMITATE_VINDICATION_ILLAGER,
+    ENTITY_PARROT_IMITATE_WITCH,
+    ENTITY_PARROT_IMITATE_WITHER,
+    ENTITY_PARROT_IMITATE_WITHER_SKELETON,
+    ENTITY_PARROT_IMITATE_WOLF,
+    ENTITY_PARROT_IMITATE_ZOMBIE,
+    ENTITY_PARROT_IMITATE_ZOMBIE_PIGMAN,
+    ENTITY_PARROT_IMITATE_ZOMBIE_VILLAGER,
+    ENTITY_PARROT_STEP,
+    ENTITY_PIG_AMBIENT,
+    ENTITY_PIG_DEATH,
+    ENTITY_PIG_HURT,
+    ENTITY_PIG_SADDLE,
+    ENTITY_PIG_STEP,
+    ENTITY_PLAYER_ATTACK_CRIT,
+    ENTITY_PLAYER_ATTACK_KNOCKBACK,
+    ENTITY_PLAYER_ATTACK_NODAMAGE,
+    ENTITY_PLAYER_ATTACK_STRONG,
+    ENTITY_PLAYER_ATTACK_SWEEP,
+    ENTITY_PLAYER_ATTACK_WEAK,
+    ENTITY_PLAYER_BIG_FALL,
+    ENTITY_PLAYER_BREATH,
+    ENTITY_PLAYER_BURP,
+    ENTITY_PLAYER_DEATH,
+    ENTITY_PLAYER_HURT,
+    ENTITY_PLAYER_HURT_DROWN,
+    ENTITY_PLAYER_HURT_ON_FIRE,
+    ENTITY_PLAYER_LEVELUP,
+    ENTITY_PLAYER_SMALL_FALL,
+    ENTITY_PLAYER_SPLASH,
+    ENTITY_PLAYER_SWIM,
+    ENTITY_POLAR_BEAR_AMBIENT,
+    ENTITY_POLAR_BEAR_BABY_AMBIENT,
+    ENTITY_POLAR_BEAR_DEATH,
+    ENTITY_POLAR_BEAR_HURT,
+    ENTITY_POLAR_BEAR_STEP,
+    ENTITY_POLAR_BEAR_WARNING,
+    ENTITY_RABBIT_AMBIENT,
+    ENTITY_RABBIT_ATTACK,
+    ENTITY_RABBIT_DEATH,
+    ENTITY_RABBIT_HURT,
+    ENTITY_RABBIT_JUMP,
+    ENTITY_SHEEP_AMBIENT,
+    ENTITY_SHEEP_DEATH,
+    ENTITY_SHEEP_HURT,
+    ENTITY_SHEEP_SHEAR,
+    ENTITY_SHEEP_STEP,
+    ENTITY_SHULKER_AMBIENT,
+    ENTITY_SHULKER_BULLET_HIT,
+    ENTITY_SHULKER_BULLET_HURT,
+    ENTITY_SHULKER_CLOSE,
+    ENTITY_SHULKER_DEATH,
+    ENTITY_SHULKER_HURT,
+    ENTITY_SHULKER_HURT_CLOSED,
+    ENTITY_SHULKER_OPEN,
+    ENTITY_SHULKER_SHOOT,
+    ENTITY_SHULKER_TELEPORT,
+    ENTITY_SILVERFISH_AMBIENT,
+    ENTITY_SILVERFISH_DEATH,
+    ENTITY_SILVERFISH_HURT,
+    ENTITY_SILVERFISH_STEP,
+    ENTITY_SKELETON_AMBIENT,
+    ENTITY_SKELETON_DEATH,
+    ENTITY_SKELETON_HORSE_AMBIENT,
+    ENTITY_SKELETON_HORSE_DEATH,
+    ENTITY_SKELETON_HORSE_HURT,
+    ENTITY_SKELETON_HURT,
+    ENTITY_SKELETON_SHOOT,
+    ENTITY_SKELETON_STEP,
+    ENTITY_SLIME_ATTACK,
+    ENTITY_SLIME_DEATH,
+    ENTITY_SLIME_HURT,
+    ENTITY_SLIME_JUMP,
+    ENTITY_SLIME_SQUISH,
+    ENTITY_SMALL_MAGMACUBE_DEATH,
+    ENTITY_SMALL_MAGMACUBE_HURT,
+    ENTITY_SMALL_MAGMACUBE_SQUISH,
+    ENTITY_SMALL_SLIME_DEATH,
+    ENTITY_SMALL_SLIME_HURT,
+    ENTITY_SMALL_SLIME_JUMP,
+    ENTITY_SMALL_SLIME_SQUISH,
+    ENTITY_SNOWBALL_THROW,
+    ENTITY_SNOWMAN_AMBIENT,
+    ENTITY_SNOWMAN_DEATH,
+    ENTITY_SNOWMAN_HURT,
+    ENTITY_SNOWMAN_SHOOT,
+    ENTITY_SPIDER_AMBIENT,
+    ENTITY_SPIDER_DEATH,
+    ENTITY_SPIDER_HURT,
+    ENTITY_SPIDER_STEP,
+    ENTITY_SPLASH_POTION_BREAK,
+    ENTITY_SPLASH_POTION_THROW,
+    ENTITY_SQUID_AMBIENT,
+    ENTITY_SQUID_DEATH,
+    ENTITY_SQUID_HURT,
+    ENTITY_STRAY_AMBIENT,
+    ENTITY_STRAY_DEATH,
+    ENTITY_STRAY_HURT,
+    ENTITY_STRAY_STEP,
+    ENTITY_TNT_PRIMED,
+    ENTITY_VEX_AMBIENT,
+    ENTITY_VEX_CHARGE,
+    ENTITY_VEX_DEATH,
+    ENTITY_VEX_HURT,
+    ENTITY_VILLAGER_AMBIENT,
+    ENTITY_VILLAGER_DEATH,
+    ENTITY_VILLAGER_HURT,
+    ENTITY_VILLAGER_NO,
+    ENTITY_VILLAGER_TRADING,
+    ENTITY_VILLAGER_YES,
+    ENTITY_VINDICATION_ILLAGER_AMBIENT,
+    ENTITY_VINDICATION_ILLAGER_DEATH,
+    ENTITY_VINDICATION_ILLAGER_HURT,
+    ENTITY_WITCH_AMBIENT,
+    ENTITY_WITCH_DEATH,
+    ENTITY_WITCH_DRINK,
+    ENTITY_WITCH_HURT,
+    ENTITY_WITCH_THROW,
+    ENTITY_WITHER_AMBIENT,
+    ENTITY_WITHER_BREAK_BLOCK,
+    ENTITY_WITHER_DEATH,
+    ENTITY_WITHER_HURT,
+    ENTITY_WITHER_SHOOT,
+    ENTITY_WITHER_SKELETON_AMBIENT,
+    ENTITY_WITHER_SKELETON_DEATH,
+    ENTITY_WITHER_SKELETON_HURT,
+    ENTITY_WITHER_SKELETON_STEP,
+    ENTITY_WITHER_SPAWN,
+    ENTITY_WOLF_AMBIENT,
+    ENTITY_WOLF_DEATH,
+    ENTITY_WOLF_GROWL,
+    ENTITY_WOLF_HOWL,
+    ENTITY_WOLF_HURT,
+    ENTITY_WOLF_PANT,
+    ENTITY_WOLF_SHAKE,
+    ENTITY_WOLF_STEP,
+    ENTITY_WOLF_WHINE,
+    ENTITY_ZOMBIE_AMBIENT,
+    ENTITY_ZOMBIE_ATTACK_DOOR_WOOD,
+    ENTITY_ZOMBIE_ATTACK_IRON_DOOR,
+    ENTITY_ZOMBIE_BREAK_DOOR_WOOD,
+    ENTITY_ZOMBIE_DEATH,
+    ENTITY_ZOMBIE_HORSE_AMBIENT,
+    ENTITY_ZOMBIE_HORSE_DEATH,
+    ENTITY_ZOMBIE_HORSE_HURT,
+    ENTITY_ZOMBIE_HURT,
+    ENTITY_ZOMBIE_INFECT,
+    ENTITY_ZOMBIE_PIG_AMBIENT,
+    ENTITY_ZOMBIE_PIG_ANGRY,
+    ENTITY_ZOMBIE_PIG_DEATH,
+    ENTITY_ZOMBIE_PIG_HURT,
+    ENTITY_ZOMBIE_STEP,
+    ENTITY_ZOMBIE_VILLAGER_AMBIENT,
+    ENTITY_ZOMBIE_VILLAGER_CONVERTED,
+    ENTITY_ZOMBIE_VILLAGER_CURE,
+    ENTITY_ZOMBIE_VILLAGER_DEATH,
+    ENTITY_ZOMBIE_VILLAGER_HURT,
+    ENTITY_ZOMBIE_VILLAGER_STEP,
+    ITEM_ARMOR_EQUIP_CHAIN,
+    ITEM_ARMOR_EQUIP_DIAMOND,
+    ITEM_ARMOR_EQUIP_ELYTRA,
+    ITEM_ARMOR_EQUIP_GENERIC,
+    ITEM_ARMOR_EQUIP_GOLD,
+    ITEM_ARMOR_EQUIP_IRON,
+    ITEM_ARMOR_EQUIP_LEATHER,
+    ITEM_BOTTLE_EMPTY,
+    ITEM_BOTTLE_FILL,
+    ITEM_BOTTLE_FILL_DRAGONBREATH,
+    ITEM_BUCKET_EMPTY,
+    ITEM_BUCKET_EMPTY_LAVA,
+    ITEM_BUCKET_FILL,
+    ITEM_BUCKET_FILL_LAVA,
+    ITEM_CHORUS_FRUIT_TELEPORT,
+    ITEM_ELYTRA_FLYING,
+    ITEM_FIRECHARGE_USE,
+    ITEM_FLINTANDSTEEL_USE,
+    ITEM_HOE_TILL,
+    ITEM_SHIELD_BLOCK,
+    ITEM_SHIELD_BREAK,
+    ITEM_SHOVEL_FLATTEN,
+    ITEM_TOTEM_USE,
+    MUSIC_CREATIVE,
+    MUSIC_CREDITS,
+    MUSIC_DRAGON,
+    MUSIC_END,
+    MUSIC_GAME,
+    MUSIC_MENU,
+    MUSIC_NETHER,
+    RECORD_11,
+    RECORD_13,
+    RECORD_BLOCKS,
+    RECORD_CAT,
+    RECORD_CHIRP,
+    RECORD_FAR,
+    RECORD_MALL,
+    RECORD_MELLOHI,
+    RECORD_STAL,
+    RECORD_STRAD,
+    RECORD_WAIT,
+    RECORD_WARD,
+    UI_BUTTON_CLICK,
+    UI_TOAST_CHALLENGE_COMPLETE,
+    UI_TOAST_IN,
+    UI_TOAST_OUT,
+    WEATHER_RAIN,
+    WEATHER_RAIN_ABOVE;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{66FF5932-66DE-4670-A06B-EB4E25D98601}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Bryan_lzh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Finder: Self()</t>
         </r>
       </text>
     </comment>
@@ -3259,7 +4435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="319">
   <si>
     <t>动作名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4492,12 +5668,58 @@
     <t>释放点是否跟随玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SoundEffect</t>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音字符串 请参考注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitch*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomSoundEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">声音字符串 请参考地址: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pokechu22.github.io/Burger/1.12.2.html#sounds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4640,6 +5862,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4690,12 +5928,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4756,6 +5997,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4768,9 +6012,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5082,10 +6333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
@@ -5118,21 +6369,21 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -5161,10 +6412,10 @@
       <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -5187,18 +6438,18 @@
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -5233,17 +6484,17 @@
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -5275,10 +6526,10 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="14" t="s">
         <v>46</v>
       </c>
@@ -5317,10 +6568,10 @@
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -5389,13 +6640,13 @@
       <c r="G8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -5427,17 +6678,17 @@
       <c r="G9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -5481,17 +6732,17 @@
       <c r="K10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="19"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -5587,10 +6838,10 @@
       <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="14" t="s">
         <v>99</v>
       </c>
@@ -5600,24 +6851,24 @@
       <c r="L13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="20"/>
       <c r="O13" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="T13" s="19"/>
+      <c r="T13" s="20"/>
     </row>
     <row r="14" spans="1:20" ht="29.95" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -5641,10 +6892,10 @@
       <c r="G14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="14" t="s">
         <v>99</v>
       </c>
@@ -5654,17 +6905,17 @@
       <c r="L14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="19"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="20"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -5691,19 +6942,19 @@
       <c r="G15" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -5733,21 +6984,21 @@
       <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="14" t="s">
         <v>181</v>
       </c>
@@ -5779,17 +7030,17 @@
       <c r="G17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="14" t="s">
         <v>4</v>
       </c>
@@ -5799,10 +7050,10 @@
       <c r="O17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="20"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -5889,11 +7140,11 @@
       <c r="M19" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="14" t="s">
         <v>240</v>
       </c>
@@ -5976,17 +7227,17 @@
       <c r="G21" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="L21" s="19"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -6179,10 +7430,10 @@
       <c r="G27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:21" ht="29.95" customHeight="1">
       <c r="A28" s="2" t="s">
@@ -6206,17 +7457,17 @@
       <c r="G28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="19"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:21" ht="29.95" customHeight="1">
       <c r="A29" s="12" t="s">
@@ -6240,17 +7491,17 @@
       <c r="G29" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="19"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="L29" s="19"/>
+      <c r="L29" s="20"/>
       <c r="M29" s="12" t="s">
         <v>227</v>
       </c>
@@ -6260,17 +7511,17 @@
       <c r="O29" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="19" t="s">
+      <c r="P29" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="Q29" s="19"/>
+      <c r="Q29" s="20"/>
       <c r="R29" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="S29" s="19" t="s">
+      <c r="S29" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="T29" s="19"/>
+      <c r="T29" s="20"/>
     </row>
     <row r="30" spans="1:21" ht="29.95" customHeight="1">
       <c r="A30" s="12"/>
@@ -6356,7 +7607,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29.95" customHeight="1">
+    <row r="34" spans="1:12" ht="29.95" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>215</v>
       </c>
@@ -6370,7 +7621,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29.95" customHeight="1">
+    <row r="35" spans="1:12" ht="29.95" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>217</v>
       </c>
@@ -6384,8 +7635,100 @@
         <v>219</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="29.95" customHeight="1">
+      <c r="A36" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" t="s">
+        <v>314</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:12" ht="29.95" customHeight="1">
+      <c r="A37" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I37" t="s">
+        <v>314</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -6402,32 +7745,14 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E37" r:id="rId1" location="sounds" display="sounds" xr:uid="{1641015E-0161-421F-9879-75B149CAE4DB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6450,28 +7775,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="15.05" thickTop="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -6730,13 +8055,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
@@ -6795,18 +8120,18 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -6815,30 +8140,30 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6864,7 +8189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -6886,17 +8211,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -7082,14 +8407,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC87B69-6E30-4E07-9F6A-68BF01706531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FA643D-E3FB-4D51-9DA0-E15C08990779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5684,22 +5684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pitch*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CustomSoundEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5713,6 +5697,22 @@
   </si>
   <si>
     <t>https://pokechu22.github.io/Burger/1.12.2.html#sounds</t>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量 常数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高 常数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5997,6 +5997,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6011,12 +6017,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6336,7 +6336,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
@@ -6369,21 +6369,21 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -6412,10 +6412,10 @@
       <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -6438,18 +6438,18 @@
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -6484,17 +6484,17 @@
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -6526,10 +6526,10 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="14" t="s">
         <v>46</v>
       </c>
@@ -6568,10 +6568,10 @@
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -6640,13 +6640,13 @@
       <c r="G8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -6678,17 +6678,17 @@
       <c r="G9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -6732,17 +6732,17 @@
       <c r="K10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="20"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="20"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -6838,10 +6838,10 @@
       <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="14" t="s">
         <v>99</v>
       </c>
@@ -6851,24 +6851,24 @@
       <c r="L13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="20"/>
+      <c r="N13" s="22"/>
       <c r="O13" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="22"/>
       <c r="R13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="T13" s="20"/>
+      <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" ht="29.95" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -6892,10 +6892,10 @@
       <c r="G14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="14" t="s">
         <v>99</v>
       </c>
@@ -6905,17 +6905,17 @@
       <c r="L14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="20"/>
+      <c r="N14" s="22"/>
       <c r="O14" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="Q14" s="20"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -6942,19 +6942,19 @@
       <c r="G15" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -6984,21 +6984,21 @@
       <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="14" t="s">
         <v>181</v>
       </c>
@@ -7030,17 +7030,17 @@
       <c r="G17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="14" t="s">
         <v>4</v>
       </c>
@@ -7050,10 +7050,10 @@
       <c r="O17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" s="20"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -7140,11 +7140,11 @@
       <c r="M19" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
       <c r="Q19" s="14" t="s">
         <v>240</v>
       </c>
@@ -7227,17 +7227,17 @@
       <c r="G21" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -7430,10 +7430,10 @@
       <c r="G27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:21" ht="29.95" customHeight="1">
       <c r="A28" s="2" t="s">
@@ -7457,17 +7457,17 @@
       <c r="G28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="20"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" spans="1:21" ht="29.95" customHeight="1">
       <c r="A29" s="12" t="s">
@@ -7491,17 +7491,17 @@
       <c r="G29" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="L29" s="20"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="12" t="s">
         <v>227</v>
       </c>
@@ -7511,17 +7511,17 @@
       <c r="O29" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="P29" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="Q29" s="20"/>
+      <c r="Q29" s="22"/>
       <c r="R29" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="S29" s="20" t="s">
+      <c r="S29" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="T29" s="20"/>
+      <c r="T29" s="22"/>
     </row>
     <row r="30" spans="1:21" ht="29.95" customHeight="1">
       <c r="A30" s="12"/>
@@ -7636,7 +7636,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="29.95" customHeight="1">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="20" t="s">
         <v>307</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -7649,86 +7649,63 @@
         <v>310</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H36" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="20"/>
+      <c r="K36" s="22"/>
     </row>
     <row r="37" spans="1:12" ht="29.95" customHeight="1">
-      <c r="A37" s="25" t="s">
-        <v>315</v>
+      <c r="A37" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>309</v>
       </c>
       <c r="D37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
         <v>317</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="H37" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="I37" t="s">
         <v>318</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G37" t="s">
-        <v>312</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="I37" t="s">
-        <v>314</v>
       </c>
       <c r="J37" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="20"/>
+      <c r="L37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -7745,6 +7722,29 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="P29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7775,28 +7775,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="15.05" thickTop="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -8055,13 +8055,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
@@ -8120,18 +8120,18 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -8140,30 +8140,30 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8211,17 +8211,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -8407,14 +8407,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FA643D-E3FB-4D51-9DA0-E15C08990779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D54722-B067-45A4-96BB-D08DD97AF199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5669,49 +5669,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音字符串 请参考注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomSoundEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">声音字符串 请参考地址: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pokechu22.github.io/Burger/1.12.2.html#sounds</t>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量 常数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高 常数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SoundEffect</t>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声音字符串 请参考注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomSoundEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">声音字符串 请参考地址: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pokechu22.github.io/Burger/1.12.2.html#sounds</t>
-  </si>
-  <si>
-    <t>volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音量 常数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音高 常数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6335,8 +6336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
@@ -7637,28 +7638,28 @@
     </row>
     <row r="36" spans="1:12" ht="29.95" customHeight="1">
       <c r="A36" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="D36" t="s">
         <v>309</v>
       </c>
-      <c r="D36" t="s">
-        <v>310</v>
-      </c>
       <c r="E36" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>317</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="H36" t="s">
-        <v>318</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>10</v>
@@ -7670,31 +7671,31 @@
     </row>
     <row r="37" spans="1:12" ht="29.95" customHeight="1">
       <c r="A37" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37" t="s">
         <v>312</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="F37" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>317</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="I37" t="s">
-        <v>318</v>
       </c>
       <c r="J37" s="19" t="s">
         <v>10</v>
@@ -7706,6 +7707,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -7722,29 +7746,6 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="P29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D54722-B067-45A4-96BB-D08DD97AF199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA0C0E7-FA35-47AB-941D-A3E3B6B6A139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动作" sheetId="1" r:id="rId1"/>
@@ -3590,6 +3590,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{AE8456D7-ABFE-40F1-AC46-EC313F6CF762}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Bryan_lzh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+布尔值
+只能填写true或false</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
@@ -3614,6 +3641,33 @@
           <t xml:space="preserve">
 若输入90
 则为玩家视线的左右歌45度内为搜索范围</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{3B6E94E5-662D-4B21-84D3-FAB74D63B6A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Bryan_lzh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+布尔值
+只能填写true或false</t>
         </r>
       </text>
     </comment>
@@ -4435,7 +4489,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="319">
   <si>
     <t>动作名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6336,7 +6390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -7707,29 +7761,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -7746,6 +7777,29 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="P29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7761,8 +7815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7963,6 +8017,9 @@
       <c r="G11" t="s">
         <v>27</v>
       </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -7982,6 +8039,9 @@
       </c>
       <c r="F12" t="s">
         <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10">

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA0C0E7-FA35-47AB-941D-A3E3B6B6A139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB607A-E7A1-4DBE-9C89-6AA6A2BD17E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动作" sheetId="1" r:id="rId1"/>
@@ -2215,7 +2215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N32" authorId="1" shapeId="0" xr:uid="{2CB16BE9-7FE6-4F49-A098-0D0ED70A724A}">
+    <comment ref="N34" authorId="1" shapeId="0" xr:uid="{2CB16BE9-7FE6-4F49-A098-0D0ED70A724A}">
       <text>
         <r>
           <rPr>
@@ -2242,7 +2242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="1" shapeId="0" xr:uid="{B188D593-2201-42AC-BBAA-B16188E99504}">
+    <comment ref="D38" authorId="1" shapeId="0" xr:uid="{B188D593-2201-42AC-BBAA-B16188E99504}">
       <text>
         <r>
           <rPr>
@@ -2804,7 +2804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="0" shapeId="0" xr:uid="{2339DE52-4DC1-497A-88E7-A6981CA86910}">
+    <comment ref="I38" authorId="0" shapeId="0" xr:uid="{2339DE52-4DC1-497A-88E7-A6981CA86910}">
       <text>
         <r>
           <rPr>
@@ -2830,7 +2830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="1" shapeId="0" xr:uid="{BE172CF9-72F9-4312-B12B-0145E65EFD8F}">
+    <comment ref="D39" authorId="1" shapeId="0" xr:uid="{BE172CF9-72F9-4312-B12B-0145E65EFD8F}">
       <text>
         <r>
           <rPr>
@@ -3392,7 +3392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{66FF5932-66DE-4670-A06B-EB4E25D98601}">
+    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{66FF5932-66DE-4670-A06B-EB4E25D98601}">
       <text>
         <r>
           <rPr>
@@ -4489,7 +4489,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="324">
   <si>
     <t>动作名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5767,6 +5767,26 @@
   </si>
   <si>
     <t>SoundEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度(角度值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前发出一道爪击 (被击中的会触发ShapeTrigger)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5991,7 +6011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6057,6 +6077,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6388,16 +6411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
@@ -6424,21 +6447,21 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -6467,10 +6490,10 @@
       <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -6493,18 +6516,18 @@
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -6539,17 +6562,17 @@
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -6581,10 +6604,10 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="14" t="s">
         <v>46</v>
       </c>
@@ -6623,10 +6646,10 @@
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -6695,13 +6718,13 @@
       <c r="G8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -6733,17 +6756,17 @@
       <c r="G9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -6787,17 +6810,17 @@
       <c r="K10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -6893,10 +6916,10 @@
       <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="14" t="s">
         <v>99</v>
       </c>
@@ -6906,24 +6929,24 @@
       <c r="L13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="Q13" s="22"/>
+      <c r="Q13" s="23"/>
       <c r="R13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="22" t="s">
+      <c r="S13" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="T13" s="22"/>
+      <c r="T13" s="23"/>
     </row>
     <row r="14" spans="1:20" ht="29.95" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -6947,10 +6970,10 @@
       <c r="G14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="14" t="s">
         <v>99</v>
       </c>
@@ -6960,17 +6983,17 @@
       <c r="L14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="P14" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="Q14" s="22"/>
+      <c r="Q14" s="23"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -6997,19 +7020,19 @@
       <c r="G15" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -7039,21 +7062,21 @@
       <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="14" t="s">
         <v>181</v>
       </c>
@@ -7085,17 +7108,17 @@
       <c r="G17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="14" t="s">
         <v>4</v>
       </c>
@@ -7105,10 +7128,10 @@
       <c r="O17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="22" t="s">
+      <c r="P17" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" s="22"/>
+      <c r="Q17" s="23"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -7195,11 +7218,11 @@
       <c r="M19" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
       <c r="Q19" s="14" t="s">
         <v>240</v>
       </c>
@@ -7282,17 +7305,17 @@
       <c r="G21" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -7485,10 +7508,10 @@
       <c r="G27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="22"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:21" ht="29.95" customHeight="1">
       <c r="A28" s="2" t="s">
@@ -7512,17 +7535,17 @@
       <c r="G28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="22"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="22"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:21" ht="29.95" customHeight="1">
       <c r="A29" s="12" t="s">
@@ -7546,17 +7569,17 @@
       <c r="G29" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="22"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="L29" s="22"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="12" t="s">
         <v>227</v>
       </c>
@@ -7566,17 +7589,17 @@
       <c r="O29" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="22" t="s">
+      <c r="P29" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="Q29" s="22"/>
+      <c r="Q29" s="23"/>
       <c r="R29" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="S29" s="22" t="s">
+      <c r="S29" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="T29" s="22"/>
+      <c r="T29" s="23"/>
     </row>
     <row r="30" spans="1:21" ht="29.95" customHeight="1">
       <c r="A30" s="12"/>
@@ -7593,174 +7616,242 @@
       <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>163</v>
+      <c r="A31" s="22" t="s">
+        <v>323</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>165</v>
+        <v>322</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>319</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:16" ht="29.95" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="29.95" customHeight="1">
+      <c r="A34" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G34" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H34" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I34" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J34" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K34" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L34" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="M32" s="16" t="s">
+      <c r="M34" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N34" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="O32" s="16" t="s">
+      <c r="O34" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P32" s="16" t="s">
+      <c r="P34" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="29.95" customHeight="1">
-      <c r="A34" s="12" t="s">
+    <row r="36" spans="1:16" ht="29.95" customHeight="1">
+      <c r="A36" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="29.95" customHeight="1">
-      <c r="A35" s="12" t="s">
+    <row r="37" spans="1:16" ht="29.95" customHeight="1">
+      <c r="A37" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="29.95" customHeight="1">
-      <c r="A36" s="20" t="s">
+    <row r="38" spans="1:16" ht="29.95" customHeight="1">
+      <c r="A38" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F38" t="s">
         <v>316</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H38" t="s">
         <v>317</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J38" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="22"/>
+      <c r="K38" s="23"/>
     </row>
-    <row r="37" spans="1:12" ht="29.95" customHeight="1">
-      <c r="A37" s="20" t="s">
+    <row r="39" spans="1:16" ht="29.95" customHeight="1">
+      <c r="A39" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C39" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>312</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E39" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I39" t="s">
         <v>317</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K39" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="22"/>
+      <c r="L39" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -7777,33 +7868,10 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="P29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1" location="sounds" display="sounds" xr:uid="{1641015E-0161-421F-9879-75B149CAE4DB}"/>
+    <hyperlink ref="E39" r:id="rId1" location="sounds" display="sounds" xr:uid="{1641015E-0161-421F-9879-75B149CAE4DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7815,8 +7883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7830,28 +7898,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="15.05" thickTop="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -8116,13 +8184,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
@@ -8181,18 +8249,18 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -8201,30 +8269,30 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8251,7 +8319,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8272,17 +8340,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -8468,14 +8536,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">

--- a/ap.xlsx
+++ b/ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA\ArtificePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB607A-E7A1-4DBE-9C89-6AA6A2BD17E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6634CF2-D0BA-4517-909E-62713004563E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2215,7 +2215,43 @@
         </r>
       </text>
     </comment>
-    <comment ref="N34" authorId="1" shapeId="0" xr:uid="{2CB16BE9-7FE6-4F49-A098-0D0ED70A724A}">
+    <comment ref="M32" authorId="0" shapeId="0" xr:uid="{5D95EB6B-ECEA-4EEB-AA2F-798271DA5B31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Bryan_lzh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Particle: 'ColorDust(255,0,0)'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N35" authorId="1" shapeId="0" xr:uid="{2CB16BE9-7FE6-4F49-A098-0D0ED70A724A}">
       <text>
         <r>
           <rPr>
@@ -2242,7 +2278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="1" shapeId="0" xr:uid="{B188D593-2201-42AC-BBAA-B16188E99504}">
+    <comment ref="D39" authorId="1" shapeId="0" xr:uid="{B188D593-2201-42AC-BBAA-B16188E99504}">
       <text>
         <r>
           <rPr>
@@ -2804,7 +2840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="0" shapeId="0" xr:uid="{2339DE52-4DC1-497A-88E7-A6981CA86910}">
+    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{2339DE52-4DC1-497A-88E7-A6981CA86910}">
       <text>
         <r>
           <rPr>
@@ -2830,7 +2866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="1" shapeId="0" xr:uid="{BE172CF9-72F9-4312-B12B-0145E65EFD8F}">
+    <comment ref="D40" authorId="1" shapeId="0" xr:uid="{BE172CF9-72F9-4312-B12B-0145E65EFD8F}">
       <text>
         <r>
           <rPr>
@@ -3392,7 +3428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{66FF5932-66DE-4670-A06B-EB4E25D98601}">
+    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{66FF5932-66DE-4670-A06B-EB4E25D98601}">
       <text>
         <r>
           <rPr>
@@ -4489,7 +4525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="330">
   <si>
     <t>动作名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5787,6 +5823,30 @@
   </si>
   <si>
     <t>Claw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomClaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义爪击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进速度(每秒的格数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到最高高度的时间(建议两秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6011,7 +6071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6077,6 +6137,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6411,10 +6474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95" customHeight="1"/>
@@ -6447,21 +6510,21 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -6490,10 +6553,10 @@
       <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -6516,18 +6579,18 @@
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -6562,17 +6625,17 @@
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -6604,10 +6667,10 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="14" t="s">
         <v>46</v>
       </c>
@@ -6646,10 +6709,10 @@
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -6718,13 +6781,13 @@
       <c r="G8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -6756,17 +6819,17 @@
       <c r="G9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -6810,17 +6873,17 @@
       <c r="K10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="23"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="23"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -6916,10 +6979,10 @@
       <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="14" t="s">
         <v>99</v>
       </c>
@@ -6929,24 +6992,24 @@
       <c r="L13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="23"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="24"/>
       <c r="R13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="23" t="s">
+      <c r="S13" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="T13" s="23"/>
+      <c r="T13" s="24"/>
     </row>
     <row r="14" spans="1:20" ht="29.95" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -6970,10 +7033,10 @@
       <c r="G14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="14" t="s">
         <v>99</v>
       </c>
@@ -6983,17 +7046,17 @@
       <c r="L14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="Q14" s="23"/>
+      <c r="Q14" s="24"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -7020,19 +7083,19 @@
       <c r="G15" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -7062,21 +7125,21 @@
       <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
       <c r="Q16" s="14" t="s">
         <v>181</v>
       </c>
@@ -7108,17 +7171,17 @@
       <c r="G17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="23"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="14" t="s">
         <v>4</v>
       </c>
@@ -7128,10 +7191,10 @@
       <c r="O17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" s="23"/>
+      <c r="Q17" s="24"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -7218,11 +7281,11 @@
       <c r="M19" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
       <c r="Q19" s="14" t="s">
         <v>240</v>
       </c>
@@ -7305,17 +7368,17 @@
       <c r="G21" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -7508,10 +7571,10 @@
       <c r="G27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:21" ht="29.95" customHeight="1">
       <c r="A28" s="2" t="s">
@@ -7535,17 +7598,17 @@
       <c r="G28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="23"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:21" ht="29.95" customHeight="1">
       <c r="A29" s="12" t="s">
@@ -7569,17 +7632,17 @@
       <c r="G29" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="L29" s="23"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="12" t="s">
         <v>227</v>
       </c>
@@ -7589,17 +7652,17 @@
       <c r="O29" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="23" t="s">
+      <c r="P29" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="Q29" s="23"/>
+      <c r="Q29" s="24"/>
       <c r="R29" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="S29" s="23" t="s">
+      <c r="S29" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="T29" s="23"/>
+      <c r="T29" s="24"/>
     </row>
     <row r="30" spans="1:21" ht="29.95" customHeight="1">
       <c r="A30" s="12"/>
@@ -7637,221 +7700,251 @@
       <c r="G31" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
     <row r="32" spans="1:21" ht="29.95" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+      <c r="A32" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="L32" s="24"/>
+      <c r="M32" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="P32" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="S32" s="24"/>
     </row>
     <row r="33" spans="1:16" ht="29.95" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="A33" s="22"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:16" ht="29.95" customHeight="1">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="29.95" customHeight="1">
+      <c r="A35" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F35" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G35" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I35" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J35" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K35" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L35" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M35" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="N35" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="O34" s="16" t="s">
+      <c r="O35" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P34" s="16" t="s">
+      <c r="P35" s="16" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="29.95" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="29.95" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="29.95" customHeight="1">
-      <c r="A38" s="20" t="s">
-        <v>318</v>
+      <c r="A38" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>308</v>
+        <v>218</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F38" t="s">
-        <v>316</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="H38" t="s">
-        <v>317</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="23"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="29.95" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>308</v>
       </c>
       <c r="D39" t="s">
+        <v>309</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H39" t="s">
+        <v>317</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:16" ht="29.95" customHeight="1">
+      <c r="A40" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" t="s">
         <v>312</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>316</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>317</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J40" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K40" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="23"/>
+      <c r="L40" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:I14"/>
+  <mergeCells count="43">
+    <mergeCell ref="R32:S32"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="D3:F3"/>
@@ -7868,10 +7961,36 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="K32:L32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1" location="sounds" display="sounds" xr:uid="{1641015E-0161-421F-9879-75B149CAE4DB}"/>
+    <hyperlink ref="E40" r:id="rId1" location="sounds" display="sounds" xr:uid="{1641015E-0161-421F-9879-75B149CAE4DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7898,28 +8017,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.05" thickTop="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -8184,13 +8303,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
@@ -8249,18 +8368,18 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -8269,30 +8388,30 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8340,17 +8459,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -8536,14 +8655,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
